--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2080.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2080.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.156407742507062</v>
+        <v>1.681921601295471</v>
       </c>
       <c r="B1">
-        <v>3.580298319157393</v>
+        <v>3.644757747650146</v>
       </c>
       <c r="C1">
-        <v>3.650845315877421</v>
+        <v>3.20806884765625</v>
       </c>
       <c r="D1">
-        <v>3.602859186298661</v>
+        <v>3.476157903671265</v>
       </c>
       <c r="E1">
-        <v>1.182058009318812</v>
+        <v>1.616185307502747</v>
       </c>
     </row>
   </sheetData>
